--- a/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
+++ b/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="11760" windowHeight="4776"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="17268" windowHeight="5280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:L19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Year</t>
   </si>
@@ -43,7 +43,7 @@
     <t>EndTimeMin</t>
   </si>
   <si>
-    <t>DEC</t>
+    <t>JAN</t>
   </si>
 </sst>
 </file>
@@ -387,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,13 +431,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>18</v>
@@ -449,7 +449,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1">
         <v>15</v>
@@ -462,14 +462,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1">
+        <v>58</v>
+      </c>
+      <c r="H2" s="1">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
+++ b/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2448" windowWidth="17268" windowHeight="5280" activeTab="1"/>
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L19"/>
 </workbook>
 </file>
 
@@ -388,7 +387,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,7 +436,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>18</v>
@@ -465,7 +464,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,16 +510,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1">
         <v>58</v>

--- a/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
+++ b/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Year</t>
   </si>
@@ -43,19 +43,35 @@
   </si>
   <si>
     <t>JAN</t>
+  </si>
+  <si>
+    <t>Procter_comment</t>
+  </si>
+  <si>
+    <t>Incomplete or Missing Documentation. …
+Vague Pronoun Reference. ...Spelling. …
+Mechanical Error with a Quotation. …
+Unnecessary Comma. ...Unnecessary or 
+Missing Capitalization.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,10 +94,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,9 +422,10 @@
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,8 +450,11 @@
       <c r="H1" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2024</v>
       </c>
@@ -436,7 +462,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1">
         <v>18</v>
@@ -452,6 +478,9 @@
       </c>
       <c r="H2" s="1">
         <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -461,10 +490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,9 +503,10 @@
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,8 +531,11 @@
       <c r="H1" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2024</v>
       </c>
@@ -510,22 +543,25 @@
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1">
         <v>30</v>
       </c>
       <c r="F2" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1">
         <v>58</v>
       </c>
       <c r="H2" s="1">
         <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
+++ b/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,10 +462,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1">
         <v>59</v>
@@ -493,7 +493,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,19 +543,19 @@
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1">
         <v>15</v>

--- a/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
+++ b/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="17268" windowHeight="5280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="17268" windowHeight="5280"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Year</t>
   </si>
@@ -53,6 +53,9 @@
 Mechanical Error with a Quotation. …
 Unnecessary Comma. ...Unnecessary or 
 Missing Capitalization.</t>
+  </si>
+  <si>
+    <t>FEB</t>
   </si>
 </sst>
 </file>
@@ -408,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,10 +462,10 @@
         <v>2024</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>17</v>
@@ -492,7 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
+++ b/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="17268" windowHeight="5280"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="17268" windowHeight="5280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Year</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>EndTimeMin</t>
-  </si>
-  <si>
-    <t>JAN</t>
   </si>
   <si>
     <t>Procter_comment</t>
@@ -411,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -462,10 +459,10 @@
         <v>2024</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>17</v>
@@ -483,7 +480,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -495,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -543,10 +540,10 @@
         <v>2024</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>17</v>
@@ -564,7 +561,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
+++ b/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="17268" windowHeight="5280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="17268" windowHeight="5280"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +471,7 @@
         <v>59</v>
       </c>
       <c r="F2" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1">
         <v>57</v>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +552,7 @@
         <v>59</v>
       </c>
       <c r="F2" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1">
         <v>57</v>

--- a/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
+++ b/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="17268" windowHeight="5280"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="17268" windowHeight="5280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1">
         <v>59</v>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1">
         <v>59</v>

--- a/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
+++ b/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
@@ -493,7 +493,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,10 +546,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1">
         <v>23</v>

--- a/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
+++ b/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="17268" windowHeight="5280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="17268" windowHeight="5280"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1">
         <v>59</v>
@@ -492,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
+++ b/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1">
         <v>59</v>

--- a/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
+++ b/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="17268" windowHeight="5280"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="17268" windowHeight="5280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1">
         <v>45</v>

--- a/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
+++ b/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Year</t>
   </si>
@@ -53,6 +53,13 @@
   </si>
   <si>
     <t>FEB</t>
+  </si>
+  <si>
+    <t>As you enter show your Student ID card. 
+ Make sure your mobile phone is switched off and place it at the front together with any bags, books, coats etc. Then find your seat. 
+ Pencil cases/glasses cases: Students are NOT permitted to have these on their desks. Pens/glasses must be removed and placed on the desk and all cases must be left at the front/side of the room with other belongings.
+ Remember that talking is not allowed at any time in the exam hall. 
+ Place your Student ID card on your desk next to your attendance card.</t>
   </si>
 </sst>
 </file>
@@ -493,7 +500,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,7 +542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="216" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2024</v>
       </c>
@@ -561,7 +568,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
+++ b/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,7 +556,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1">
         <v>23</v>

--- a/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
+++ b/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="17268" windowHeight="5280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="17268" windowHeight="5280"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Year</t>
   </si>
@@ -43,13 +43,6 @@
   </si>
   <si>
     <t>Procter_comment</t>
-  </si>
-  <si>
-    <t>Incomplete or Missing Documentation. …
-Vague Pronoun Reference. ...Spelling. …
-Mechanical Error with a Quotation. …
-Unnecessary Comma. ...Unnecessary or 
-Missing Capitalization.</t>
   </si>
   <si>
     <t>FEB</t>
@@ -415,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,12 +454,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="216" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2024</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -475,7 +468,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="1">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1">
         <v>23</v>
@@ -487,7 +480,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -499,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,7 +540,7 @@
         <v>2024</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -568,7 +561,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
+++ b/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
+++ b/src/test/resources/ExcelFiles/Time_Slot_Details.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12-ExamCenter/src/test/resources/ExcelFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_63F80B0458BBEEEAA9A75963993D7E119F1C995D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D8B68EE-79D5-4888-B00B-1299F5FEAA7F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="17268" windowHeight="5280"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
     <sheet name="Prod" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="LMSProd" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Year</t>
   </si>
@@ -58,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,14 +121,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +169,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -232,7 +241,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,10 +414,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -489,11 +498,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,13 +579,81 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="53.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1">
+        <v>57</v>
+      </c>
+      <c r="H2" s="1">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>